--- a/trait_stressor_rankings/trait_stressor_sens_bsh.xlsx
+++ b/trait_stressor_rankings/trait_stressor_sens_bsh.xlsx
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1063,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>135</v>
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>135</v>

--- a/trait_stressor_rankings/trait_stressor_sens_bsh.xlsx
+++ b/trait_stressor_rankings/trait_stressor_sens_bsh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="520" windowWidth="23560" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="1880" yWindow="740" windowWidth="23560" windowHeight="16340" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="biomass removal" sheetId="10" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="poisons + toxins" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="sens_traits" localSheetId="0">'biomass removal'!$A$1:$C$85</definedName>
+    <definedName name="sens_traits" localSheetId="0">'biomass removal'!$A$1:$C$99</definedName>
     <definedName name="sens_traits" localSheetId="1">entanglement!$A$1:$C$77</definedName>
     <definedName name="sens_traits" localSheetId="2">'habitat loss + degradation'!$A$1:$C$91</definedName>
     <definedName name="sens_traits" localSheetId="3">'plastic pollution'!$A$1:$C$85</definedName>
@@ -27,6 +27,204 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tc={2B4462B3-BB3B-4C6B-96A6-6382DFC55828}</author>
+    <author>tc={FBB58AFB-C19B-465B-B1D8-4DF5A7807366}</author>
+    <author>tc={06ED4F5E-DFAA-49D6-A9B4-C48865F7A798}</author>
+  </authors>
+  <commentList>
+    <comment ref="D24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Indirect but see comments re fishing pressure and size of fish affecting eggs and survival in hypoxic water, also behavioural responses to hypoxia making organisms more susceptible to fishing gear. Not sure if this should change the score overall though.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D45" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I'd suggest these would be higher than species with many aggregation sites or non-aggregating fish? Maybe 0 for non-aggregating, low for many and medium/high for one or few?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D50" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    As above, maybe more sensitive?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tc={521E3509-3861-4C30-A994-543643D91ACA}</author>
+  </authors>
+  <commentList>
+    <comment ref="D59" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not sure why flight would in itself pose a risk of entanglement? I think the main risk to seabirds is covered in 'air-sea interface'?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tc={3E725FF9-882A-4D15-9799-650FC029E4A5}</author>
+    <author>tc={97E5DF3C-C7A8-46B5-919E-F5D6374FC18A}</author>
+    <author>tc={292BDDE3-11FA-4E3D-AEF1-D760B123DCBD}</author>
+  </authors>
+  <commentList>
+    <comment ref="F32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Does it matter that this isn't directly related to fishing? It demonstrated that species with specialised diets (in this case a fish that strongly preferred one species of coral) were sensitive to habitat degradation - in that case bleaching (and would not move to other coral species which didn't bleach).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D51" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I would agree with this assumption that body size isn't relevant, but see analysis by Olden et al (2007) (see comment in 'notes' column)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D91" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Filter feeders probably more sensitive than others to habitat degradation (sedimentation) caused by trawling? But already addressed in sedimentation sheet</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tc={279A59EB-E2CA-4B6C-A8F6-3F0D4B97E258}</author>
+    <author>tc={8A584AEA-F8EA-474D-994C-3F8504ECC5FE}</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Don't think this trait makes a species more senstive to the poison, but effect of cyanide has been shown to be worsened by increased temperatures - Madeira et al (2020): "Here we show that the impact of cyanide poisoning in fish mortality is magnified under elevated temperatures" (+3oC and +6oC)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E52" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I couldn't find much on this. Apparently calcification in calcifying green algae is negatively affected by pesticides (diuron)(Marques et al 2020)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -89,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="158">
   <si>
     <t>category</t>
   </si>
@@ -509,13 +707,477 @@
   </si>
   <si>
     <t>ditto</t>
+  </si>
+  <si>
+    <t>"Size distributions: Baltic cod. Fisheries regulations can indirectly influence the susceptibility of cod eggs to hypoxia-induced mortality by influencing the size of spawning females in the population. Large females produce large eggs that are sufficiently buoyant to be retained in oxygenated mid-depth waters; smaller females produce small eggs that sink and perish (Vallin &amp; Nissling, 2000)." (Breitburg et al 2009) "Behavioral responses to hypoxia can increase the susceptibility of organisms to fishing gear, and at least initially result in increased landings. Catch per unit effort of Norway lobsters in the Kattegat along the coast of Sweden peaked in the mid- 1980s, as worsening hypoxia induced lobsters to leave their burrows, making them more accessible to nets (Baden et al., 1990)" (Breitburg et al 2009)</t>
+  </si>
+  <si>
+    <t>Breitburg et al (2009)</t>
+  </si>
+  <si>
+    <t>Stelfox et al (2016)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"Top predators, such as sharks, are known to be attracted to floating mats of algae or debris as these mats are home to many of their prey, who in turn are in search of shelter and food. Indeed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fishing industry actually exploits this phenomenon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, with purse seine and pole and line fisheries using</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> artificial floating devices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> known as Fish Aggregating Devices (or FADs) to attract their catch. FADs usually consist of a floating frame with a marker on the surface and long aggregators (nets) hanging underneath.While attracting their target species, such as tuna, many other non-targeted species are also caught." (Stelfox et al 2016)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sadovy de Mitcheson et al (2008), Hamilton et al (2016) (reef fish), Sadovy &amp; Domeier (2005)</t>
+  </si>
+  <si>
+    <r>
+      <t>Species that f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orm aggregations that are predictable in space and time may be particularly vulnerable to overexploitagion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Sadovy de Mitcheson et al (2008) "Although species differ in the temporal and spatial predictability of aggregation behavior, there is a clear trend that strongly suggests there is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>relationship between declines and the degree of formation of concentrated aggregations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. In U.S. grouper fisheries, for example, the Nassau grouper lies at one extreme, with few aggregations, large numbers of fish per aggregation, and greatest declines. The closely related red grouper, E. morio, a species not known to aggregate, occurs at the other extreme (Coleman et al. 1996). Almost all groupers proposed for listing as threatened on the World Conserva tion Union (IUCN) Red List form spawning aggregations (www.iucnredlist.org)" Sadovy de Mitcheson et al (2008) "The most obvious direct effect of heavy aggregation exploitation is the rapid depletion of adults and the associated reduction in egg production. The long-term impacts of such a reduction will depend on several factors, the most important being recruitment. Given the longevity and late sexual maturation of many aggregating species, as well as sporadic recruitment known for some (e.g., coral trout, Russ et al. 1996), effects of heavy aggregation fishing may not be noted for many years, leading to greater risk of overexploitation through delayed management action." (Sadovy &amp; Domeier, 2005).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Jennings et al (1999) demonstrated that "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fishing has greater effects on slower growing, larger species</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with later maturity and lower rates of
+potential population increase". van Treeck et al (2020) state that large bodied species usually rank higher in food webs, face lower predation risk, disperse further, utilize larger home ranges and thus, experience a comparatively low natural mortality as adults. "This in turn makes the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> largest species most sensitive to anthropogenic factors increasing additional mortality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (McCann and Shuter, 1997; Frisk et al., 2001; Winemiller, 2005)." "Alternative approaches to determining vulnerability have looked for other life history traits such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>body size, which are correlated with response to exploitation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. In </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>skates, body size appears to be a good predictor of vulnerability to exploitation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Dulvy et al. 2000; Dulvy and Reynolds 2002), with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>larger species having lower  replacement rates than smaller species</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Walker and Hislop 1998; Dulvy et al. 2000; Dulvy and Reynolds 2002). However, this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trend is less clear in western Atlantic skates and in Pacific sharks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> there is no body size correlation with Smith et al.’s (1998) rebound potential (Stevens et al. 2000)." (Fowler et al 2005) 'Our results support the notion that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commercial fishing proportionately threaten large-bodied marine and freshwater species</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, whereas habitat degradation and loss threaten smaller-bodied marine fishes' (Olden et al 2007). 'Adding to the vulnerability of this species is its </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>late maturity at a large size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Hamilton et al. 2008) and the restriction of juvenile recruitment to lagoonal fringing reef environments with high coral cover that are sensitive to the effect of poor land-based practices' (Hamilton et al 2016).</t>
+    </r>
+  </si>
+  <si>
+    <t>Olive Ridley Turtles "have a habit of basking at the sea surface (Pitman, 1993), which may make them susceptible to boat impacts and net entanglements." (Stelfox et al 2015). "Top predators, such as sharks, are known to be attracted to floating mats of algae or debris as these mats are home to many of their prey, who in turn are in search of shelter and food" (Stelfox et al 2016). "Sea turtles, for example, often forage along drift lines where prey as well as floating entangling debris accumulates (A. Carr 1987)." (Laist 1997) "Like sea turtles, some seabirds known to become entangled, such as gannets, also feed along current margins (Ashmole 1971) where debris concentrates. In general, seabirds that feed by scavenging (e.g., herring and black-headed gulls) and plunging (e.g., pelicans and gan nets) are among the species with the highest entanglement rates" (Laist, 1997)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stelfox et al (2015)(turtles), Stelfox et al (2016)(sharks, turtles), Laist (1997)(turtles, seabirds) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"Here, I show that declines in coral abundance lead to corresponding declines in the abundance of coral-dwelling fishes, but with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proportionally greater losses to specialists than generalists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" (Munday 2004). 'Niche breadth explained 74% of the variation in species’ mean response to coral decline and it is clear that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>disturbance has a greater impact on resource specialists, suggesting that increasing frequency and intensity of coral loss will cause reef fish communities to become dominated by habitat generalists at the expense of coral-dwelling specialists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.' (Wilson et al 2008) "Habitat specialists are expected to be more vulnerable to habitat loss because habitat availability exerts a greater limitation on population size, but it is also possible that specialist species may escape effects of disturbance if they use habitats that are generally resilient to disturbance" (Pratchett et al 2012). </t>
+    </r>
+  </si>
+  <si>
+    <t>Munday (2004)(coral-dwelling fish), Pratchett et al (2012)(coral-dwelling fish), Wilson et al (2008)(coral-dwelling fish)</t>
+  </si>
+  <si>
+    <t>Brooker et al (2014)(corallivorous  fish)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Our results support the notion that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commercial fishing proportionately threaten large-bodied marine and freshwater species</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, whereas habitat degradation and loss threaten smaller-bodied marine fishes' (Olden et al 2007)</t>
+    </r>
+  </si>
+  <si>
+    <t>Olden et al (2007)(fish)</t>
+  </si>
+  <si>
+    <t>"rates of contaminant uptake and elimination may be determined by species-specifi
+and size-specific metabolic rates (Mason, 2002), leading to different results being recorded according to species and body size (or life-cycle stage). This size-dependent variability has already been documented in other fish exposed to cyanide (Smith et al., 1978; McCraken and Leduc, 1980; Isom, 1993), as well as to other pollutants (Anderson and Weber, 1975; Biswas and Kaviraj, 2002; Capkin et al., 2006), highlighting the importance of addressing size-specific effects of toxicants." (Madeira et al 2020)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"The clownfish Amphiprion ocellaris was the most resistant, especially medium-sized fish [average total length and weight of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38 mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">...that showed shorter recovery times and higher survival rates (%) when compared to small-sized ones [average total length and weight of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25 mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and 0.30 g...." (Madeira et al 2020) 'In this study, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>smaller fish were more vulnerable to cyanide exposure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> than medium-sized fish,
+supporting the rationale that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cyanide toxicity is size-dependent </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Smith et al., 1978; McCraken and Leduc, 1980).' (Madeira et al 2020)</t>
+    </r>
+  </si>
+  <si>
+    <t>Madeira et al (2020)(fish and cyanide)</t>
+  </si>
+  <si>
+    <t>"In general, rates of contaminant uptake have been shown to vary with body size in aquatic organisms including mollusks (Riget et al., 1996) and fish (Merciai et al., 2014)" (Madeira et al 2020)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -560,8 +1222,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,6 +1300,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -637,7 +1333,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -659,6 +1355,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1018,11 +1725,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1422,11 +2129,15 @@
       <c r="C24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
@@ -1556,7 +2267,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
         <v>44</v>
       </c>
@@ -1574,7 +2285,7 @@
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
         <v>44</v>
       </c>
@@ -1585,14 +2296,16 @@
         <v>10</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
         <v>44</v>
       </c>
@@ -1605,10 +2318,12 @@
       <c r="D35" s="10">
         <v>0</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="23" t="s">
+        <v>143</v>
+      </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
         <v>44</v>
       </c>
@@ -1626,7 +2341,7 @@
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
         <v>44</v>
       </c>
@@ -1642,7 +2357,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7">
       <c r="A38" s="5" t="s">
         <v>44</v>
       </c>
@@ -1660,7 +2375,7 @@
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
         <v>44</v>
       </c>
@@ -1676,7 +2391,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
@@ -1694,7 +2409,7 @@
       </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
         <v>44</v>
       </c>
@@ -1710,7 +2425,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
@@ -1726,7 +2441,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
         <v>44</v>
       </c>
@@ -1744,7 +2459,7 @@
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
@@ -1760,319 +2475,346 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="11" t="s">
+    <row r="45" spans="1:7" s="16" customFormat="1">
+      <c r="A45" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="24">
+        <v>0</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="16" customFormat="1">
+      <c r="A46" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="24">
+        <v>0</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="1:7" s="16" customFormat="1">
+      <c r="A47" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="16">
+        <v>0</v>
+      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="28"/>
+    </row>
+    <row r="48" spans="1:7" s="16" customFormat="1">
+      <c r="A48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0</v>
+      </c>
+      <c r="E48" s="27"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="1:7" s="16" customFormat="1">
+      <c r="A49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="16">
+        <v>0</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" spans="1:7" s="16" customFormat="1">
+      <c r="A50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="24">
+        <v>0</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="1:7" s="16" customFormat="1">
+      <c r="A51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0</v>
+      </c>
+      <c r="E51" s="27"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" spans="1:7" s="16" customFormat="1">
+      <c r="A52" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="1:7" s="16" customFormat="1">
+      <c r="A53" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="16">
+        <v>0</v>
+      </c>
+      <c r="E53" s="27"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="26"/>
+    </row>
+    <row r="54" spans="1:7" s="16" customFormat="1">
+      <c r="A54" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="16">
+        <v>0</v>
+      </c>
+      <c r="E54" s="27"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="26"/>
+    </row>
+    <row r="55" spans="1:7" s="16" customFormat="1">
+      <c r="A55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="16">
+        <v>0</v>
+      </c>
+      <c r="E55" s="27"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="26"/>
+    </row>
+    <row r="56" spans="1:7" s="16" customFormat="1">
+      <c r="A56" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="16">
+        <v>0</v>
+      </c>
+      <c r="E56" s="27"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="26"/>
+    </row>
+    <row r="57" spans="1:7" s="16" customFormat="1">
+      <c r="A57" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="16">
+        <v>0</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="26"/>
+    </row>
+    <row r="58" spans="1:7" s="16" customFormat="1">
+      <c r="A58" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="16">
+        <v>0</v>
+      </c>
+      <c r="E58" s="27"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="26"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D59" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="11" t="s">
+      <c r="E59" s="12"/>
+      <c r="F59" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D60" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="11" t="s">
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="12">
-        <v>0</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="11" t="s">
+      <c r="D61" s="12">
+        <v>0</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="12">
-        <v>0</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="11" t="s">
+      <c r="D62" s="12">
+        <v>0</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="12">
-        <v>0</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="13" t="s">
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="D50" s="14">
-        <v>0</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="14">
-        <v>0</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="14">
-        <v>0</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="14">
-        <v>0</v>
-      </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="14">
-        <v>0</v>
-      </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="14">
-        <v>0</v>
-      </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="12">
-        <v>0</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="12">
-        <v>0</v>
-      </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="12">
-        <v>0</v>
-      </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="12">
-        <v>0</v>
-      </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="14">
-        <v>0</v>
-      </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" s="14">
-        <v>0</v>
-      </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" s="14">
-        <v>0</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" s="14">
-        <v>0</v>
-      </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="D64" s="14">
         <v>0</v>
@@ -2085,10 +2827,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D65" s="14">
         <v>0</v>
@@ -2101,10 +2843,10 @@
         <v>56</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D66" s="14">
         <v>0</v>
@@ -2116,43 +2858,43 @@
       <c r="A67" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="12">
-        <v>0</v>
-      </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
+      <c r="B67" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="14">
+        <v>0</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="12">
-        <v>0</v>
-      </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+      <c r="B68" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="14">
+        <v>0</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D69" s="14">
         <v>0</v>
@@ -2164,27 +2906,27 @@
       <c r="A70" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="14">
-        <v>0</v>
-      </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
+      <c r="B70" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="12">
+        <v>0</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D71" s="12">
         <v>0</v>
@@ -2197,10 +2939,10 @@
         <v>56</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D72" s="12">
         <v>0</v>
@@ -2212,27 +2954,27 @@
       <c r="A73" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="14">
-        <v>0</v>
-      </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
+      <c r="B73" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="12">
+        <v>0</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="D74" s="14">
         <v>0</v>
@@ -2244,43 +2986,43 @@
       <c r="A75" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="12">
-        <v>0</v>
-      </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
+      <c r="B75" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="14">
+        <v>0</v>
+      </c>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="12">
-        <v>0</v>
-      </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
+      <c r="B76" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="14">
+        <v>0</v>
+      </c>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D77" s="14">
         <v>0</v>
@@ -2293,10 +3035,10 @@
         <v>56</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="D78" s="14">
         <v>0</v>
@@ -2309,10 +3051,10 @@
         <v>56</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D79" s="14">
         <v>0</v>
@@ -2324,27 +3066,27 @@
       <c r="A80" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" s="12">
-        <v>0</v>
-      </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
+      <c r="B80" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="14">
+        <v>0</v>
+      </c>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="D81" s="12">
         <v>0</v>
@@ -2357,10 +3099,10 @@
         <v>56</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="D82" s="12">
         <v>0</v>
@@ -2372,53 +3114,278 @@
       <c r="A83" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D83" s="12">
-        <v>0</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
+      <c r="B83" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="14">
+        <v>0</v>
+      </c>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="12">
-        <v>0</v>
-      </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
+      <c r="B84" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="14">
+        <v>0</v>
+      </c>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="D85" s="12">
         <v>0</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="12">
+        <v>0</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="14">
+        <v>0</v>
+      </c>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="14">
+        <v>0</v>
+      </c>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="12">
+        <v>0</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="12">
+        <v>0</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="14">
+        <v>0</v>
+      </c>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="14">
+        <v>0</v>
+      </c>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" s="14">
+        <v>0</v>
+      </c>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" s="12">
+        <v>0</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D95" s="12">
+        <v>0</v>
+      </c>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" s="12">
+        <v>0</v>
+      </c>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" s="12">
+        <v>0</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D98" s="12">
+        <v>0</v>
+      </c>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99" s="12">
+        <v>0</v>
+      </c>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2428,11 +3395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD50"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2863,8 +3830,12 @@
       <c r="D26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
@@ -3390,7 +4361,7 @@
       <c r="C59" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="24" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="12"/>
@@ -3691,6 +4662,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3700,11 +4672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+    <sheetView topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4183,8 +5155,12 @@
       <c r="D29" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
@@ -4236,7 +5212,9 @@
       <c r="E32" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
@@ -4566,11 +5544,15 @@
       <c r="C51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="12">
-        <v>0</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="D51" s="24">
+        <v>0</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="11" t="s">
@@ -5214,7 +6196,7 @@
       <c r="C91" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="24">
         <v>0</v>
       </c>
       <c r="E91" s="12"/>
@@ -5223,6 +6205,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6638,11 +7621,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6682,7 +7665,7 @@
       <c r="C2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="24">
         <v>0</v>
       </c>
       <c r="E2" s="4"/>
@@ -7263,7 +8246,9 @@
       <c r="D38" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="12"/>
+      <c r="E38" s="29" t="s">
+        <v>154</v>
+      </c>
       <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6">
@@ -7279,8 +8264,12 @@
       <c r="D39" s="12">
         <v>0</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="E39" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="11" t="s">
@@ -7295,7 +8284,9 @@
       <c r="D40" s="12">
         <v>0</v>
       </c>
-      <c r="E40" s="12"/>
+      <c r="E40" s="29" t="s">
+        <v>157</v>
+      </c>
       <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6">
@@ -7903,6 +8894,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
